--- a/Kredex/Laenud.xlsx
+++ b/Kredex/Laenud.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="111">
   <si>
     <t xml:space="preserve">Registrikood</t>
   </si>
@@ -329,6 +329,30 @@
   </si>
   <si>
     <t xml:space="preserve">geniteh, oü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EESTI KESKKONNATEENUSED AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Service OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisly OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allprint HM OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODIL Eesti OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDO Eesti OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OÜ Saare Hotell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osaühing Fiesta Reisid</t>
   </si>
 </sst>
 </file>
@@ -344,6 +368,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -365,6 +390,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -409,7 +435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +450,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -443,10 +473,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2380,6 +2410,186 @@
         <v>45869</v>
       </c>
     </row>
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="n">
+        <v>10277820</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>12035707</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>12198160</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>12305503</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>11692359</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>12549100</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>12305503</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>12972464</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>10876526</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>44804</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
